--- a/docs/mcode-r4/obf-Participation-extension.xlsx
+++ b/docs/mcode-r4/obf-Participation-extension.xlsx
@@ -203,7 +203,7 @@
     <t>participant</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-Participant-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Participant-extension}
 </t>
   </si>
   <si>
@@ -213,7 +213,7 @@
     <t>participationtype</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-ParticipationType-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-ParticipationType-extension}
 </t>
   </si>
   <si>
@@ -223,7 +223,7 @@
     <t>participationperiod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-ParticipationPeriod-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-ParticipationPeriod-extension}
 </t>
   </si>
   <si>
@@ -233,7 +233,7 @@
     <t>onbehalfof</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-OnBehalfOf-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-OnBehalfOf-extension}
 </t>
   </si>
   <si>
@@ -256,7 +256,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/StructureDefinition/obf-Participation-extension</t>
+    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Participation-extension</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
